--- a/data/pca/factorExposure/factorExposure_2016-07-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-07-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01154406423306307</v>
+        <v>0.01338389377687429</v>
       </c>
       <c r="C2">
-        <v>-0.05272374429785633</v>
+        <v>0.04369932380685365</v>
       </c>
       <c r="D2">
-        <v>-0.03748250748454843</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06198810742812455</v>
+      </c>
+      <c r="E2">
+        <v>-0.06937706825685543</v>
+      </c>
+      <c r="F2">
+        <v>0.06664052687940178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.04965291808693334</v>
+        <v>0.02916181960257518</v>
       </c>
       <c r="C3">
-        <v>-0.1069458055226164</v>
+        <v>0.07935992460340939</v>
       </c>
       <c r="D3">
-        <v>-0.09960920391044953</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08900719243532011</v>
+      </c>
+      <c r="E3">
+        <v>-0.07094131967124281</v>
+      </c>
+      <c r="F3">
+        <v>-0.006247132830803708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06539303353881434</v>
+        <v>0.05786259993740026</v>
       </c>
       <c r="C4">
-        <v>-0.06083568738236315</v>
+        <v>0.06666309096559261</v>
       </c>
       <c r="D4">
-        <v>-0.03038700560346893</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05971785847153004</v>
+      </c>
+      <c r="E4">
+        <v>-0.06961735475446931</v>
+      </c>
+      <c r="F4">
+        <v>0.0779733279471487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.03941012540419825</v>
+        <v>0.0355289108933992</v>
       </c>
       <c r="C6">
-        <v>-0.03991762126595291</v>
+        <v>0.03236416256212175</v>
       </c>
       <c r="D6">
-        <v>-0.03381260810536671</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06394745366089549</v>
+      </c>
+      <c r="E6">
+        <v>-0.07222924330495803</v>
+      </c>
+      <c r="F6">
+        <v>0.05930400892518356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.0215734529650391</v>
+        <v>0.01855001611840888</v>
       </c>
       <c r="C7">
-        <v>-0.0440690457242066</v>
+        <v>0.03866918343252412</v>
       </c>
       <c r="D7">
-        <v>0.003996556778341352</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03713608879707096</v>
+      </c>
+      <c r="E7">
+        <v>-0.04745487101144724</v>
+      </c>
+      <c r="F7">
+        <v>0.09995222724974842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.002820415405684712</v>
+        <v>0.003402670949443222</v>
       </c>
       <c r="C8">
-        <v>-0.03046666075369522</v>
+        <v>0.02899855992034396</v>
       </c>
       <c r="D8">
-        <v>-0.02660058905794563</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03115507681018284</v>
+      </c>
+      <c r="E8">
+        <v>-0.05092850960144811</v>
+      </c>
+      <c r="F8">
+        <v>0.03668949920179483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03536378639352575</v>
+        <v>0.03682321818351401</v>
       </c>
       <c r="C9">
-        <v>-0.04582498440864229</v>
+        <v>0.05260836316757179</v>
       </c>
       <c r="D9">
-        <v>-0.01645658915371918</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04247537363067615</v>
+      </c>
+      <c r="E9">
+        <v>-0.05657955908359382</v>
+      </c>
+      <c r="F9">
+        <v>0.08422946251326477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07347163088891687</v>
+        <v>0.09967039048844534</v>
       </c>
       <c r="C10">
-        <v>0.1948828119941033</v>
+        <v>-0.196983111768297</v>
       </c>
       <c r="D10">
-        <v>0.008128310748185945</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.005683863462873607</v>
+      </c>
+      <c r="E10">
+        <v>-0.0434835238855782</v>
+      </c>
+      <c r="F10">
+        <v>0.04027261850742397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.04154593563026542</v>
+        <v>0.03647671849749903</v>
       </c>
       <c r="C11">
-        <v>-0.05480158297705523</v>
+        <v>0.05135361224490881</v>
       </c>
       <c r="D11">
-        <v>-0.01436407368714255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03345095808789531</v>
+      </c>
+      <c r="E11">
+        <v>-0.01595023338673328</v>
+      </c>
+      <c r="F11">
+        <v>0.06626188468165739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.04111872385921919</v>
+        <v>0.0372428004800135</v>
       </c>
       <c r="C12">
-        <v>-0.04861753150626895</v>
+        <v>0.047081918171577</v>
       </c>
       <c r="D12">
-        <v>-0.003061451116072554</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02539877841460413</v>
+      </c>
+      <c r="E12">
+        <v>-0.02349679551809533</v>
+      </c>
+      <c r="F12">
+        <v>0.06647566526051427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01419268222170749</v>
+        <v>0.01238845413484753</v>
       </c>
       <c r="C13">
-        <v>-0.05517172660292646</v>
+        <v>0.04666065479501337</v>
       </c>
       <c r="D13">
-        <v>-0.01994238062791625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05729645833647266</v>
+      </c>
+      <c r="E13">
+        <v>-0.08242499569252398</v>
+      </c>
+      <c r="F13">
+        <v>0.09693147081932409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.007306621242916964</v>
+        <v>0.004573026349279293</v>
       </c>
       <c r="C14">
-        <v>-0.0384190457745728</v>
+        <v>0.0333747422195968</v>
       </c>
       <c r="D14">
-        <v>0.01399910559704576</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02527662415146447</v>
+      </c>
+      <c r="E14">
+        <v>-0.03614395064902836</v>
+      </c>
+      <c r="F14">
+        <v>0.09523563359026853</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0003508324403067509</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004657225115725066</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.005803842884598331</v>
+      </c>
+      <c r="E15">
+        <v>-0.002090273652844876</v>
+      </c>
+      <c r="F15">
+        <v>0.004178475480774718</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03742149664153599</v>
+        <v>0.03403926364878889</v>
       </c>
       <c r="C16">
-        <v>-0.0471138021499595</v>
+        <v>0.04520831911033616</v>
       </c>
       <c r="D16">
-        <v>-0.009150291050240147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02722693541889287</v>
+      </c>
+      <c r="E16">
+        <v>-0.03050045379783443</v>
+      </c>
+      <c r="F16">
+        <v>0.06822307506053284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02351939800447307</v>
+        <v>0.01658372420312226</v>
       </c>
       <c r="C19">
-        <v>-0.06460511806531223</v>
+        <v>0.0504693381577364</v>
       </c>
       <c r="D19">
-        <v>-0.08015913366444569</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09072492968280325</v>
+      </c>
+      <c r="E19">
+        <v>-0.09953527587412991</v>
+      </c>
+      <c r="F19">
+        <v>0.07400815621754013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01734879293080325</v>
+        <v>0.01381282658683433</v>
       </c>
       <c r="C20">
-        <v>-0.04867571996036106</v>
+        <v>0.04106723336405037</v>
       </c>
       <c r="D20">
-        <v>-0.01600583485798231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03760414745375868</v>
+      </c>
+      <c r="E20">
+        <v>-0.06707476764323886</v>
+      </c>
+      <c r="F20">
+        <v>0.07793466968396744</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01155491135406074</v>
+        <v>0.00944147659366152</v>
       </c>
       <c r="C21">
-        <v>-0.05136026296140695</v>
+        <v>0.04597166562720004</v>
       </c>
       <c r="D21">
-        <v>-0.03948397193927387</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06706358792509347</v>
+      </c>
+      <c r="E21">
+        <v>-0.09627371308410096</v>
+      </c>
+      <c r="F21">
+        <v>0.1227224309794092</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.002204543793791163</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02403616241910451</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0368398850024581</v>
+      </c>
+      <c r="E22">
+        <v>-0.02931376446084624</v>
+      </c>
+      <c r="F22">
+        <v>0.01265500318825456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.002274666197341962</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02417996060969117</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03650210748580809</v>
+      </c>
+      <c r="E23">
+        <v>-0.02958883245649119</v>
+      </c>
+      <c r="F23">
+        <v>0.012456791003942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.03377788097331619</v>
+        <v>0.0337257902804199</v>
       </c>
       <c r="C24">
-        <v>-0.05113137004449073</v>
+        <v>0.05348846500674138</v>
       </c>
       <c r="D24">
-        <v>-0.007818488811028697</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02623495005934987</v>
+      </c>
+      <c r="E24">
+        <v>-0.02744966066894978</v>
+      </c>
+      <c r="F24">
+        <v>0.0762053967910227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04754556787953745</v>
+        <v>0.04383739998066052</v>
       </c>
       <c r="C25">
-        <v>-0.06174956136465013</v>
+        <v>0.05723317134670709</v>
       </c>
       <c r="D25">
-        <v>0.0007897426190639606</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0245390720550197</v>
+      </c>
+      <c r="E25">
+        <v>-0.02208889665457936</v>
+      </c>
+      <c r="F25">
+        <v>0.07769315793168148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01651793088552338</v>
+        <v>0.01430940437362267</v>
       </c>
       <c r="C26">
-        <v>-0.01517310534235206</v>
+        <v>0.01714937884443673</v>
       </c>
       <c r="D26">
-        <v>0.00204725660431132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02426674408306145</v>
+      </c>
+      <c r="E26">
+        <v>-0.03914833414329225</v>
+      </c>
+      <c r="F26">
+        <v>0.06717641847746733</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.08638589473486417</v>
+        <v>0.1337895511811093</v>
       </c>
       <c r="C28">
-        <v>0.2348833036702579</v>
+        <v>-0.2468271171049384</v>
       </c>
       <c r="D28">
-        <v>0.005277947055138545</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02028742780343743</v>
+      </c>
+      <c r="E28">
+        <v>-0.05049779079063856</v>
+      </c>
+      <c r="F28">
+        <v>0.05849539394063011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.008452048501261456</v>
+        <v>0.005488206271569708</v>
       </c>
       <c r="C29">
-        <v>-0.03116767677575499</v>
+        <v>0.02928288435700352</v>
       </c>
       <c r="D29">
-        <v>0.01927932088261824</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01869750204707459</v>
+      </c>
+      <c r="E29">
+        <v>-0.0363161952283968</v>
+      </c>
+      <c r="F29">
+        <v>0.08833135331781994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05005157295449555</v>
+        <v>0.04241983402262616</v>
       </c>
       <c r="C30">
-        <v>-0.06220953352743357</v>
+        <v>0.06500514187339629</v>
       </c>
       <c r="D30">
-        <v>-0.07734623660715743</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1090726031099271</v>
+      </c>
+      <c r="E30">
+        <v>-0.06054170067463938</v>
+      </c>
+      <c r="F30">
+        <v>0.08970363314159002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05397599964404253</v>
+        <v>0.05502151376435921</v>
       </c>
       <c r="C31">
-        <v>-0.03667033126913556</v>
+        <v>0.05549141586303579</v>
       </c>
       <c r="D31">
-        <v>0.03081804436191288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01307365500715319</v>
+      </c>
+      <c r="E31">
+        <v>-0.06075387368326246</v>
+      </c>
+      <c r="F31">
+        <v>0.07361795989916854</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.002102868643492761</v>
+        <v>0.004510015621256178</v>
       </c>
       <c r="C32">
-        <v>-0.03975626618162682</v>
+        <v>0.03520606979123483</v>
       </c>
       <c r="D32">
-        <v>-0.044231047310951</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05075713069424685</v>
+      </c>
+      <c r="E32">
+        <v>-0.03844276582008288</v>
+      </c>
+      <c r="F32">
+        <v>0.06611637021558812</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02810413664823233</v>
+        <v>0.0247048197024195</v>
       </c>
       <c r="C33">
-        <v>-0.06068925834828577</v>
+        <v>0.05494953801024029</v>
       </c>
       <c r="D33">
-        <v>-0.04689107497091694</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07850425716435927</v>
+      </c>
+      <c r="E33">
+        <v>-0.07089798739475736</v>
+      </c>
+      <c r="F33">
+        <v>0.1188232936851331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04541345302659908</v>
+        <v>0.0411213159744924</v>
       </c>
       <c r="C34">
-        <v>-0.06638605868559802</v>
+        <v>0.064126318290118</v>
       </c>
       <c r="D34">
-        <v>-0.01117865730706395</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0337390863055403</v>
+      </c>
+      <c r="E34">
+        <v>-0.001773501540007025</v>
+      </c>
+      <c r="F34">
+        <v>0.07795457420479994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01318289692740512</v>
+        <v>0.01303137758389593</v>
       </c>
       <c r="C36">
-        <v>-0.01716696125039241</v>
+        <v>0.01300439190509143</v>
       </c>
       <c r="D36">
-        <v>0.002440108032467741</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02629362145638194</v>
+      </c>
+      <c r="E36">
+        <v>-0.04588869304749992</v>
+      </c>
+      <c r="F36">
+        <v>0.07502939247505096</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1431,96 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.03048287433392364</v>
+        <v>0.02428676007067076</v>
       </c>
       <c r="C38">
-        <v>-0.02945552721462766</v>
+        <v>0.02493043036651345</v>
       </c>
       <c r="D38">
-        <v>0.006454332117233804</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02669171220097227</v>
+      </c>
+      <c r="E38">
+        <v>-0.04544421845117132</v>
+      </c>
+      <c r="F38">
+        <v>0.06317129772992194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04594217047057236</v>
+        <v>0.0396369227542412</v>
       </c>
       <c r="C39">
-        <v>-0.07151934656265219</v>
+        <v>0.06866898904913867</v>
       </c>
       <c r="D39">
-        <v>-0.02160446875229181</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05342907720986138</v>
+      </c>
+      <c r="E39">
+        <v>-0.03230331401423354</v>
+      </c>
+      <c r="F39">
+        <v>0.08656088714231364</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.0127835890261452</v>
+        <v>0.01586974133034821</v>
       </c>
       <c r="C40">
-        <v>-0.05460042517719051</v>
+        <v>0.0403042421272141</v>
       </c>
       <c r="D40">
-        <v>-0.02490272871762303</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03843196865241096</v>
+      </c>
+      <c r="E40">
+        <v>-0.08192833318685262</v>
+      </c>
+      <c r="F40">
+        <v>0.06911108958206959</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01815794771106124</v>
+        <v>0.01776293118964159</v>
       </c>
       <c r="C41">
-        <v>-0.005082891555321095</v>
+        <v>0.00703953474306146</v>
       </c>
       <c r="D41">
-        <v>0.002658189073235638</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01389377481282483</v>
+      </c>
+      <c r="E41">
+        <v>-0.04913814607918109</v>
+      </c>
+      <c r="F41">
+        <v>0.06461575010004204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03686899169431767</v>
+        <v>0.02855811979301639</v>
       </c>
       <c r="C43">
-        <v>-0.02232674150517299</v>
+        <v>0.02161990877176699</v>
       </c>
       <c r="D43">
-        <v>-0.01866541030946795</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03969630985667347</v>
+      </c>
+      <c r="E43">
+        <v>-0.06006025801250417</v>
+      </c>
+      <c r="F43">
+        <v>0.07557585246056157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.01488656842278679</v>
+        <v>0.0143235392001266</v>
       </c>
       <c r="C44">
-        <v>-0.06360633120284057</v>
+        <v>0.05160184338603677</v>
       </c>
       <c r="D44">
-        <v>-0.01731911224296354</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04082847490076787</v>
+      </c>
+      <c r="E44">
+        <v>-0.07704047515127309</v>
+      </c>
+      <c r="F44">
+        <v>0.07650980709480681</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.005312634667421046</v>
+        <v>0.007578808358002661</v>
       </c>
       <c r="C46">
-        <v>-0.02344258730685202</v>
+        <v>0.02610189471316465</v>
       </c>
       <c r="D46">
-        <v>0.02164629896405203</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.009866813518157986</v>
+      </c>
+      <c r="E46">
+        <v>-0.04528713950161946</v>
+      </c>
+      <c r="F46">
+        <v>0.1006200256245665</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.08335309918799337</v>
+        <v>0.08712318551699055</v>
       </c>
       <c r="C47">
-        <v>-0.06572672460295678</v>
+        <v>0.07923218355195508</v>
       </c>
       <c r="D47">
-        <v>0.02768607197562808</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01872398758419132</v>
+      </c>
+      <c r="E47">
+        <v>-0.06297236573905639</v>
+      </c>
+      <c r="F47">
+        <v>0.07542565234816072</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01861786870369329</v>
+        <v>0.0156642003063272</v>
       </c>
       <c r="C48">
-        <v>-0.01357649289810411</v>
+        <v>0.01705802943588066</v>
       </c>
       <c r="D48">
-        <v>0.0156540436800492</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01494052122371027</v>
+      </c>
+      <c r="E48">
+        <v>-0.05704127008460581</v>
+      </c>
+      <c r="F48">
+        <v>0.08944549758895279</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08093547264921488</v>
+        <v>0.07081885842347274</v>
       </c>
       <c r="C50">
-        <v>-0.07170781308922582</v>
+        <v>0.07195865873122531</v>
       </c>
       <c r="D50">
-        <v>0.03049419550426481</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.005844926425076545</v>
+      </c>
+      <c r="E50">
+        <v>-0.06595913914193513</v>
+      </c>
+      <c r="F50">
+        <v>0.06008072187918462</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01508363903958217</v>
+        <v>0.01057855058245732</v>
       </c>
       <c r="C51">
-        <v>-0.05020925061095062</v>
+        <v>0.03422173053920912</v>
       </c>
       <c r="D51">
-        <v>-0.02550787065274492</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04914268849840975</v>
+      </c>
+      <c r="E51">
+        <v>-0.03633687273740559</v>
+      </c>
+      <c r="F51">
+        <v>0.07831937142572162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.08208789145660193</v>
+        <v>0.09339422065776701</v>
       </c>
       <c r="C53">
-        <v>-0.07633479715718355</v>
+        <v>0.08651661543596861</v>
       </c>
       <c r="D53">
-        <v>0.03994681269236779</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04269867291035943</v>
+      </c>
+      <c r="E53">
+        <v>-0.05945722505698944</v>
+      </c>
+      <c r="F53">
+        <v>0.08315520806431592</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03027841757158362</v>
+        <v>0.02771031088745484</v>
       </c>
       <c r="C54">
-        <v>-0.02625462853514793</v>
+        <v>0.02678372673863576</v>
       </c>
       <c r="D54">
-        <v>0.001028190662816496</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02867345558499075</v>
+      </c>
+      <c r="E54">
+        <v>-0.04594160744171689</v>
+      </c>
+      <c r="F54">
+        <v>0.09969478415080422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07551348715497569</v>
+        <v>0.08489200745199861</v>
       </c>
       <c r="C55">
-        <v>-0.05823641065215432</v>
+        <v>0.06973241621997928</v>
       </c>
       <c r="D55">
-        <v>0.04759819073878565</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04897208129631012</v>
+      </c>
+      <c r="E55">
+        <v>-0.04685895775961797</v>
+      </c>
+      <c r="F55">
+        <v>0.05832157326091</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1453100082339121</v>
+        <v>0.1466895676737874</v>
       </c>
       <c r="C56">
-        <v>-0.09349439756601945</v>
+        <v>0.104401419598916</v>
       </c>
       <c r="D56">
-        <v>0.04539981331666577</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05203524889538267</v>
+      </c>
+      <c r="E56">
+        <v>-0.04936551262584631</v>
+      </c>
+      <c r="F56">
+        <v>0.04168816966073164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.00095056650330433</v>
+        <v>0.0003558036952789138</v>
       </c>
       <c r="C57">
-        <v>-0.0007923157857844515</v>
+        <v>0.0006190037028014408</v>
       </c>
       <c r="D57">
-        <v>-0.01650673424462277</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.0121540278835754</v>
+      </c>
+      <c r="E57">
+        <v>-0.009267572718374899</v>
+      </c>
+      <c r="F57">
+        <v>0.006615576571540944</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.05967206108415731</v>
+        <v>0.02887456748088916</v>
       </c>
       <c r="C58">
-        <v>-0.02769780636718566</v>
+        <v>0.03733583258642386</v>
       </c>
       <c r="D58">
-        <v>-0.7236519271346057</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4124082694664313</v>
+      </c>
+      <c r="E58">
+        <v>-0.6647301272885472</v>
+      </c>
+      <c r="F58">
+        <v>-0.5392151171535589</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1300502645047008</v>
+        <v>0.1447552465483851</v>
       </c>
       <c r="C59">
-        <v>0.1956669912088427</v>
+        <v>-0.1864053045073364</v>
       </c>
       <c r="D59">
-        <v>-0.02010012494615883</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03086900393828151</v>
+      </c>
+      <c r="E59">
+        <v>-0.02792435950936321</v>
+      </c>
+      <c r="F59">
+        <v>0.02062033077351358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3109567780361837</v>
+        <v>0.2833706692145798</v>
       </c>
       <c r="C60">
-        <v>-0.08126366737063345</v>
+        <v>0.09766997474851308</v>
       </c>
       <c r="D60">
-        <v>-0.1188607461945525</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2203145545356111</v>
+      </c>
+      <c r="E60">
+        <v>0.2657824871104869</v>
+      </c>
+      <c r="F60">
+        <v>-0.09245830196670281</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.04257241292754766</v>
+        <v>0.04106184215399686</v>
       </c>
       <c r="C61">
-        <v>-0.06545703431035345</v>
+        <v>0.06268357723616629</v>
       </c>
       <c r="D61">
-        <v>-0.01691194957720098</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04485801356491735</v>
+      </c>
+      <c r="E61">
+        <v>-0.03649621772295975</v>
+      </c>
+      <c r="F61">
+        <v>0.07753292716812016</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01602802265240915</v>
+        <v>0.01509513378147793</v>
       </c>
       <c r="C63">
-        <v>-0.03568075047935909</v>
+        <v>0.03254269822454999</v>
       </c>
       <c r="D63">
-        <v>0.006896639771510473</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02133433032386893</v>
+      </c>
+      <c r="E63">
+        <v>-0.04898483627338442</v>
+      </c>
+      <c r="F63">
+        <v>0.07042571249535759</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.04763194582867718</v>
+        <v>0.05550261182071858</v>
       </c>
       <c r="C64">
-        <v>-0.04319003409929092</v>
+        <v>0.05502457113818558</v>
       </c>
       <c r="D64">
-        <v>-0.001864042478259725</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.004801373794259009</v>
+      </c>
+      <c r="E64">
+        <v>-0.0295365636767955</v>
+      </c>
+      <c r="F64">
+        <v>0.08580458350520524</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.08851139281780145</v>
+        <v>0.06975463323672905</v>
       </c>
       <c r="C65">
-        <v>-0.03202134519421759</v>
+        <v>0.03323607649630599</v>
       </c>
       <c r="D65">
-        <v>-0.05224366942696367</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08691956263768243</v>
+      </c>
+      <c r="E65">
+        <v>-0.03759709907826551</v>
+      </c>
+      <c r="F65">
+        <v>0.008815897123558571</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.0643563424210353</v>
+        <v>0.05252083870118161</v>
       </c>
       <c r="C66">
-        <v>-0.1020872613046543</v>
+        <v>0.09059756512655003</v>
       </c>
       <c r="D66">
-        <v>-0.04457012650539813</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08089011393730226</v>
+      </c>
+      <c r="E66">
+        <v>-0.03868483208257908</v>
+      </c>
+      <c r="F66">
+        <v>0.08812845799131123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05280966628960774</v>
+        <v>0.04623135178988967</v>
       </c>
       <c r="C67">
-        <v>-0.03339254057176056</v>
+        <v>0.03140618436933089</v>
       </c>
       <c r="D67">
-        <v>0.009169971728551846</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01372252308566112</v>
+      </c>
+      <c r="E67">
+        <v>-0.02557417226981718</v>
+      </c>
+      <c r="F67">
+        <v>0.05191032612845514</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1165917719144085</v>
+        <v>0.1499005759549729</v>
       </c>
       <c r="C68">
-        <v>0.2835952019526835</v>
+        <v>-0.2509891383750714</v>
       </c>
       <c r="D68">
-        <v>0.01019803028643921</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01938981675917674</v>
+      </c>
+      <c r="E68">
+        <v>-0.04350826984967878</v>
+      </c>
+      <c r="F68">
+        <v>0.01327872879619546</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.09046607760598782</v>
+        <v>0.0869353708168166</v>
       </c>
       <c r="C69">
-        <v>-0.0640009043490654</v>
+        <v>0.08559084182774426</v>
       </c>
       <c r="D69">
-        <v>0.03958764269437632</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01032294678888478</v>
+      </c>
+      <c r="E69">
+        <v>-0.0466978221301614</v>
+      </c>
+      <c r="F69">
+        <v>0.09262410248878666</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2091,516 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1106247699505934</v>
+        <v>0.1427560418409267</v>
       </c>
       <c r="C71">
-        <v>0.2457719369811465</v>
+        <v>-0.23448747443883</v>
       </c>
       <c r="D71">
-        <v>-0.02550607016965699</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01317119342322991</v>
+      </c>
+      <c r="E71">
+        <v>-0.062607376066487</v>
+      </c>
+      <c r="F71">
+        <v>0.05454431263851895</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08982744055141072</v>
+        <v>0.09779002210431904</v>
       </c>
       <c r="C72">
-        <v>-0.05155808537015791</v>
+        <v>0.05673997386633336</v>
       </c>
       <c r="D72">
-        <v>-0.00408415322401202</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02754554675398976</v>
+      </c>
+      <c r="E72">
+        <v>-0.01504360179458627</v>
+      </c>
+      <c r="F72">
+        <v>0.07177794659495172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.420418821960426</v>
+        <v>0.3477757880478308</v>
       </c>
       <c r="C73">
-        <v>-0.05460677229431373</v>
+        <v>0.07955620794314952</v>
       </c>
       <c r="D73">
-        <v>-0.3205949541771479</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4670007014397204</v>
+      </c>
+      <c r="E73">
+        <v>0.4738077819221378</v>
+      </c>
+      <c r="F73">
+        <v>-0.2506827416361427</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1102698779855938</v>
+        <v>0.1110648812424722</v>
       </c>
       <c r="C74">
-        <v>-0.09859997357965501</v>
+        <v>0.09848828097880626</v>
       </c>
       <c r="D74">
-        <v>0.02243851188891222</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03189327668171978</v>
+      </c>
+      <c r="E74">
+        <v>-0.06434418683622879</v>
+      </c>
+      <c r="F74">
+        <v>0.04665752664958449</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2520009663926965</v>
+        <v>0.256909624735949</v>
       </c>
       <c r="C75">
-        <v>-0.1019751403081555</v>
+        <v>0.1312289342223237</v>
       </c>
       <c r="D75">
-        <v>0.08439946870204722</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1307942465736944</v>
+      </c>
+      <c r="E75">
+        <v>-0.06870873304895524</v>
+      </c>
+      <c r="F75">
+        <v>0.009012962468377753</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1132099636679153</v>
+        <v>0.1278115429903247</v>
       </c>
       <c r="C76">
-        <v>-0.0891592340365749</v>
+        <v>0.09937878920134431</v>
       </c>
       <c r="D76">
-        <v>0.04274612258410503</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06089996409750958</v>
+      </c>
+      <c r="E76">
+        <v>-0.07696566798513581</v>
+      </c>
+      <c r="F76">
+        <v>0.06555227871044962</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07837103233061586</v>
+        <v>0.06323230546851007</v>
       </c>
       <c r="C77">
-        <v>-0.05911437730715487</v>
+        <v>0.07363227445625409</v>
       </c>
       <c r="D77">
-        <v>-0.05849411695421047</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06134610903241088</v>
+      </c>
+      <c r="E77">
+        <v>-0.09155874410467085</v>
+      </c>
+      <c r="F77">
+        <v>0.1090928473272613</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04909414928527395</v>
+        <v>0.0433356632367556</v>
       </c>
       <c r="C78">
-        <v>-0.04842780274182619</v>
+        <v>0.06141770393396959</v>
       </c>
       <c r="D78">
-        <v>-0.02360042819643103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06721301148111196</v>
+      </c>
+      <c r="E78">
+        <v>-0.0421450099717867</v>
+      </c>
+      <c r="F78">
+        <v>0.09024971524504299</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02584885434077857</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03897837310623396</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06320317801375948</v>
+      </c>
+      <c r="E79">
+        <v>-0.05533152468992342</v>
+      </c>
+      <c r="F79">
+        <v>0.03445277699207371</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04612083021255448</v>
+        <v>0.0348106823998688</v>
       </c>
       <c r="C80">
-        <v>-0.05381701557548567</v>
+        <v>0.05451934700100049</v>
       </c>
       <c r="D80">
-        <v>-0.03087051211971399</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04369627899826008</v>
+      </c>
+      <c r="E80">
+        <v>-0.01585025329084937</v>
+      </c>
+      <c r="F80">
+        <v>0.0333053492406517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1406771590374454</v>
+        <v>0.1404574872143057</v>
       </c>
       <c r="C81">
-        <v>-0.07605337885930537</v>
+        <v>0.09359867409025566</v>
       </c>
       <c r="D81">
-        <v>0.06672539991860159</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1020972365315025</v>
+      </c>
+      <c r="E81">
+        <v>-0.08429384198156675</v>
+      </c>
+      <c r="F81">
+        <v>0.00851223547935185</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1599414428495003</v>
+        <v>0.2023244610659219</v>
       </c>
       <c r="C82">
-        <v>-0.06557425128429897</v>
+        <v>0.1376256439139811</v>
       </c>
       <c r="D82">
-        <v>0.1612985081643911</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2410444256820809</v>
+      </c>
+      <c r="E82">
+        <v>-0.0002708212944154935</v>
+      </c>
+      <c r="F82">
+        <v>0.09536363281112691</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.03923547537526961</v>
+        <v>0.02828979601571592</v>
       </c>
       <c r="C83">
-        <v>-0.02520830660885814</v>
+        <v>0.04177378312544223</v>
       </c>
       <c r="D83">
-        <v>-0.03398360813038778</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03434865699920423</v>
+      </c>
+      <c r="E83">
+        <v>-0.02038085016594926</v>
+      </c>
+      <c r="F83">
+        <v>0.04211775427148227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>2.68794265960063e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.0002028830641427594</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>1.299491124029314e-06</v>
+      </c>
+      <c r="E84">
+        <v>3.239852700925158e-05</v>
+      </c>
+      <c r="F84">
+        <v>0.0002382947841338594</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2196293641671184</v>
+        <v>0.2032827184540225</v>
       </c>
       <c r="C85">
-        <v>-0.09940545529223559</v>
+        <v>0.1179708963384512</v>
       </c>
       <c r="D85">
-        <v>0.1126818400598119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09870979770600434</v>
+      </c>
+      <c r="E85">
+        <v>0.001692180192850818</v>
+      </c>
+      <c r="F85">
+        <v>-0.01562055400248483</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.00915252649207004</v>
+        <v>0.01110424853521409</v>
       </c>
       <c r="C86">
-        <v>-0.04127463829814067</v>
+        <v>0.03181965155539414</v>
       </c>
       <c r="D86">
-        <v>-0.04490422274091826</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.06502404260780097</v>
+      </c>
+      <c r="E86">
+        <v>-0.06341773693575325</v>
+      </c>
+      <c r="F86">
+        <v>0.128165949180011</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.02420279203244564</v>
+        <v>0.02210038251863109</v>
       </c>
       <c r="C87">
-        <v>-0.01905684076797499</v>
+        <v>0.02152579643526732</v>
       </c>
       <c r="D87">
-        <v>-0.0980944314509192</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08952444757837522</v>
+      </c>
+      <c r="E87">
+        <v>-0.111740115087797</v>
+      </c>
+      <c r="F87">
+        <v>0.06846503967953822</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1077871147322635</v>
+        <v>0.09327331096736713</v>
       </c>
       <c r="C88">
-        <v>-0.06372973453123547</v>
+        <v>0.06122684523451681</v>
       </c>
       <c r="D88">
-        <v>0.03325264177585621</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.005406358541995844</v>
+      </c>
+      <c r="E88">
+        <v>-0.04197768766448569</v>
+      </c>
+      <c r="F88">
+        <v>0.07427840896475553</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1767466023569641</v>
+        <v>0.2205583022963165</v>
       </c>
       <c r="C89">
-        <v>0.3776745886200523</v>
+        <v>-0.3790384635443517</v>
       </c>
       <c r="D89">
-        <v>0.01944256468582286</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.005290737873659475</v>
+      </c>
+      <c r="E89">
+        <v>-0.06351415174259367</v>
+      </c>
+      <c r="F89">
+        <v>0.0754265505844228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1730163107502124</v>
+        <v>0.1999925322264613</v>
       </c>
       <c r="C90">
-        <v>0.3433857207574508</v>
+        <v>-0.3147091141846552</v>
       </c>
       <c r="D90">
-        <v>0.02221719561059687</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01330102140087332</v>
+      </c>
+      <c r="E90">
+        <v>-0.07293723979763221</v>
+      </c>
+      <c r="F90">
+        <v>0.04194482614996844</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1895578272102963</v>
+        <v>0.185611249383928</v>
       </c>
       <c r="C91">
-        <v>-0.123781119107871</v>
+        <v>0.140368496614259</v>
       </c>
       <c r="D91">
-        <v>0.08463885134426277</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1103983567364367</v>
+      </c>
+      <c r="E91">
+        <v>-0.06026850646266664</v>
+      </c>
+      <c r="F91">
+        <v>0.03256221517105069</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1631533339573117</v>
+        <v>0.1819682966716544</v>
       </c>
       <c r="C92">
-        <v>0.2915715786578506</v>
+        <v>-0.2845574452319453</v>
       </c>
       <c r="D92">
-        <v>0.006726561179586279</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.006168930964836047</v>
+      </c>
+      <c r="E92">
+        <v>-0.06799068510222067</v>
+      </c>
+      <c r="F92">
+        <v>0.08338271110549719</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1952365029664836</v>
+        <v>0.2243376748475323</v>
       </c>
       <c r="C93">
-        <v>0.3462443094042335</v>
+        <v>-0.3189163283879105</v>
       </c>
       <c r="D93">
-        <v>0.0168746353569127</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.004154911385998163</v>
+      </c>
+      <c r="E93">
+        <v>-0.04998354643558067</v>
+      </c>
+      <c r="F93">
+        <v>0.04126752446082167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.3387855740169731</v>
+        <v>0.3428627422198512</v>
       </c>
       <c r="C94">
-        <v>-0.1414165874805192</v>
+        <v>0.1806009827533189</v>
       </c>
       <c r="D94">
-        <v>0.4413257558018328</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4958092713322357</v>
+      </c>
+      <c r="E94">
+        <v>-0.05028401859200799</v>
+      </c>
+      <c r="F94">
+        <v>-0.4421414564913105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1136002890802051</v>
+        <v>0.08602921100775363</v>
       </c>
       <c r="C95">
-        <v>-0.07889310661479464</v>
+        <v>0.06839103521164493</v>
       </c>
       <c r="D95">
-        <v>-0.1163335476407891</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1698211364525907</v>
+      </c>
+      <c r="E95">
+        <v>0.1061186705603068</v>
+      </c>
+      <c r="F95">
+        <v>0.2227274719259703</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1973583549400096</v>
+        <v>0.1881826674786789</v>
       </c>
       <c r="C98">
-        <v>-0.01994859915259573</v>
+        <v>0.04396623718043936</v>
       </c>
       <c r="D98">
-        <v>-0.12632275221472</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1869851565436018</v>
+      </c>
+      <c r="E98">
+        <v>0.1472655361144469</v>
+      </c>
+      <c r="F98">
+        <v>-0.03562378725432058</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.008385711740420921</v>
+        <v>0.005539132977376234</v>
       </c>
       <c r="C101">
-        <v>-0.03118286771264048</v>
+        <v>0.0290247788642595</v>
       </c>
       <c r="D101">
-        <v>0.01984674999293803</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01816785046836729</v>
+      </c>
+      <c r="E101">
+        <v>-0.0369753428283191</v>
+      </c>
+      <c r="F101">
+        <v>0.08804618579434167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.121648556434879</v>
+        <v>0.1240093716776507</v>
       </c>
       <c r="C102">
-        <v>-0.07253834287378379</v>
+        <v>0.09912839143036571</v>
       </c>
       <c r="D102">
-        <v>0.02751100765995087</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04820116961994939</v>
+      </c>
+      <c r="E102">
+        <v>0.006029306545480335</v>
+      </c>
+      <c r="F102">
+        <v>0.04287255713166532</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
